--- a/Code/Results/Cases/Case_7_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.972524355401238</v>
+        <v>0.9812586133830258</v>
       </c>
       <c r="D2">
-        <v>0.9956955597613054</v>
+        <v>1.002921172077837</v>
       </c>
       <c r="E2">
-        <v>0.9823055811832905</v>
+        <v>0.9902299979779348</v>
       </c>
       <c r="F2">
-        <v>0.9478596082556996</v>
+        <v>0.9570903977804195</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03265618443937</v>
+        <v>1.035936356589171</v>
       </c>
       <c r="J2">
-        <v>0.9955591075416852</v>
+        <v>1.004014699930389</v>
       </c>
       <c r="K2">
-        <v>1.007215189806753</v>
+        <v>1.014339959801721</v>
       </c>
       <c r="L2">
-        <v>0.9940170584194595</v>
+        <v>1.001827143691867</v>
       </c>
       <c r="M2">
-        <v>0.9600965269130534</v>
+        <v>0.9691817681405965</v>
       </c>
       <c r="N2">
-        <v>0.9969729156666201</v>
+        <v>1.005440515966386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9804741163688142</v>
+        <v>0.98642186734712</v>
       </c>
       <c r="D3">
-        <v>1.001593786093364</v>
+        <v>1.006622155523602</v>
       </c>
       <c r="E3">
-        <v>0.9889001049205618</v>
+        <v>0.9943785047896495</v>
       </c>
       <c r="F3">
-        <v>0.9588187424173039</v>
+        <v>0.9650678297242814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034679629265756</v>
+        <v>1.037022255994917</v>
       </c>
       <c r="J3">
-        <v>1.001511609862484</v>
+        <v>1.00728965678305</v>
       </c>
       <c r="K3">
-        <v>1.012206314666678</v>
+        <v>1.017171000070378</v>
       </c>
       <c r="L3">
-        <v>0.9996770091397831</v>
+        <v>1.005083822633846</v>
       </c>
       <c r="M3">
-        <v>0.9700071489930587</v>
+        <v>0.97616808611773</v>
       </c>
       <c r="N3">
-        <v>1.002933871223476</v>
+        <v>1.00872012363342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9854376019476273</v>
+        <v>0.9896802791582584</v>
       </c>
       <c r="D4">
-        <v>1.005278507637176</v>
+        <v>1.008959236166153</v>
       </c>
       <c r="E4">
-        <v>0.9930242968035067</v>
+        <v>0.9970028379138142</v>
       </c>
       <c r="F4">
-        <v>0.9656445049315866</v>
+        <v>0.9700865554186685</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035928638170562</v>
+        <v>1.037695203647898</v>
       </c>
       <c r="J4">
-        <v>1.00522129608923</v>
+        <v>1.009351699671943</v>
       </c>
       <c r="K4">
-        <v>1.015313640465906</v>
+        <v>1.018950720454457</v>
       </c>
       <c r="L4">
-        <v>1.003207647972316</v>
+        <v>1.007137571148203</v>
       </c>
       <c r="M4">
-        <v>0.9761760523050506</v>
+        <v>0.9805599397722325</v>
       </c>
       <c r="N4">
-        <v>1.006648825630172</v>
+        <v>1.010785094859735</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9874838858750415</v>
+        <v>0.9910312380675786</v>
       </c>
       <c r="D5">
-        <v>1.006797957600667</v>
+        <v>1.009928480752563</v>
       </c>
       <c r="E5">
-        <v>0.9947261020167777</v>
+        <v>0.9980923633799191</v>
       </c>
       <c r="F5">
-        <v>0.9684552658250049</v>
+        <v>0.9721640921824869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036440049996215</v>
+        <v>1.037971203737642</v>
       </c>
       <c r="J5">
-        <v>1.006749013084654</v>
+        <v>1.010205489002828</v>
       </c>
       <c r="K5">
-        <v>1.016592464246485</v>
+        <v>1.019686904029708</v>
       </c>
       <c r="L5">
-        <v>1.004662388002462</v>
+        <v>1.007988686823777</v>
       </c>
       <c r="M5">
-        <v>0.9787153395611239</v>
+        <v>0.9823771312210657</v>
       </c>
       <c r="N5">
-        <v>1.00817871215896</v>
+        <v>1.011640096669401</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9878251763840558</v>
+        <v>0.9912569876935295</v>
       </c>
       <c r="D6">
-        <v>1.00705139677135</v>
+        <v>1.010090458664472</v>
       </c>
       <c r="E6">
-        <v>0.995010025711736</v>
+        <v>0.9982745109600686</v>
       </c>
       <c r="F6">
-        <v>0.9689238862710722</v>
+        <v>0.9725110772817098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036525137294718</v>
+        <v>1.038017145978706</v>
       </c>
       <c r="J6">
-        <v>1.007003715105436</v>
+        <v>1.010348091996785</v>
       </c>
       <c r="K6">
-        <v>1.016805620150274</v>
+        <v>1.019809821339247</v>
       </c>
       <c r="L6">
-        <v>1.004904967108339</v>
+        <v>1.008130887701435</v>
       </c>
       <c r="M6">
-        <v>0.9791386388274299</v>
+        <v>0.9826805830411163</v>
       </c>
       <c r="N6">
-        <v>1.008433775885826</v>
+        <v>1.011782902175966</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9854650995495918</v>
+        <v>0.9896984037837625</v>
       </c>
       <c r="D7">
-        <v>1.005298924506686</v>
+        <v>1.008972238678032</v>
       </c>
       <c r="E7">
-        <v>0.9930471594194388</v>
+        <v>0.9970174494137416</v>
       </c>
       <c r="F7">
-        <v>0.9656822875517935</v>
+        <v>0.9701144401646692</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035935524450196</v>
+        <v>1.03769891845573</v>
       </c>
       <c r="J7">
-        <v>1.005241831928752</v>
+        <v>1.009363158770865</v>
       </c>
       <c r="K7">
-        <v>1.015330834004509</v>
+        <v>1.018960603966498</v>
       </c>
       <c r="L7">
-        <v>1.003227199871991</v>
+        <v>1.007148991366679</v>
       </c>
       <c r="M7">
-        <v>0.9762101897468735</v>
+        <v>0.9805843335651009</v>
       </c>
       <c r="N7">
-        <v>1.00666939063294</v>
+        <v>1.010796570231892</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9752502163600046</v>
+        <v>0.9830212078265915</v>
       </c>
       <c r="D8">
-        <v>0.9977174310140013</v>
+        <v>1.004184228118039</v>
       </c>
       <c r="E8">
-        <v>0.9845652260824929</v>
+        <v>0.9916448258357862</v>
       </c>
       <c r="F8">
-        <v>0.9516213388432808</v>
+        <v>0.9598172851298727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033352987757373</v>
+        <v>1.036309618703318</v>
       </c>
       <c r="J8">
-        <v>0.9976015551298315</v>
+        <v>1.005133660727772</v>
       </c>
       <c r="K8">
-        <v>1.008928410179049</v>
+        <v>1.015307818117783</v>
       </c>
       <c r="L8">
-        <v>0.9959584114336928</v>
+        <v>1.002939175472347</v>
       </c>
       <c r="M8">
-        <v>0.9634991137051464</v>
+        <v>0.9715705449041413</v>
       </c>
       <c r="N8">
-        <v>0.9990182637646137</v>
+        <v>1.006561065816448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9557203973855791</v>
+        <v>0.9705794562535873</v>
       </c>
       <c r="D9">
-        <v>0.9832478670749025</v>
+        <v>0.9952783284605595</v>
       </c>
       <c r="E9">
-        <v>0.9684109570358587</v>
+        <v>0.9816872198633353</v>
       </c>
       <c r="F9">
-        <v>0.924560862035761</v>
+        <v>0.9404786933976196</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028301142316924</v>
+        <v>1.033624026447696</v>
       </c>
       <c r="J9">
-        <v>0.9829398782151735</v>
+        <v>0.9972156875565173</v>
       </c>
       <c r="K9">
-        <v>0.9966187119514854</v>
+        <v>1.0084484788405</v>
       </c>
       <c r="L9">
-        <v>0.9820382165298737</v>
+        <v>0.9950845651704894</v>
       </c>
       <c r="M9">
-        <v>0.9390092007684108</v>
+        <v>0.954617398002966</v>
       </c>
       <c r="N9">
-        <v>0.9843357655870189</v>
+        <v>0.9986318482150854</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414292717164938</v>
+        <v>0.9617638360570306</v>
       </c>
       <c r="D10">
-        <v>0.9726900568212463</v>
+        <v>0.9889844797377276</v>
       </c>
       <c r="E10">
-        <v>0.9566423523756213</v>
+        <v>0.9746719977729759</v>
       </c>
       <c r="F10">
-        <v>0.9045663380909982</v>
+        <v>0.9266312293963048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02453161653203</v>
+        <v>1.031658527811398</v>
       </c>
       <c r="J10">
-        <v>0.9721761666834776</v>
+        <v>0.9915811503080917</v>
       </c>
       <c r="K10">
-        <v>0.9875705515948298</v>
+        <v>1.003555512442116</v>
       </c>
       <c r="L10">
-        <v>0.9718412013676465</v>
+        <v>0.9895141275668614</v>
       </c>
       <c r="M10">
-        <v>0.9209026423926204</v>
+        <v>0.94246482542412</v>
       </c>
       <c r="N10">
-        <v>0.973556768350333</v>
+        <v>0.9929893092774769</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9348713803802703</v>
+        <v>0.9578059553837738</v>
       </c>
       <c r="D11">
-        <v>0.9678559781369047</v>
+        <v>0.9861640698149192</v>
       </c>
       <c r="E11">
-        <v>0.9512570526933926</v>
+        <v>0.9715329608110339</v>
       </c>
       <c r="F11">
-        <v>0.895324304303688</v>
+        <v>0.9203685919800542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022785955764513</v>
+        <v>1.030761964082397</v>
       </c>
       <c r="J11">
-        <v>0.9672291108353384</v>
+        <v>0.9890458627109079</v>
       </c>
       <c r="K11">
-        <v>0.9834106556379487</v>
+        <v>1.001351715073798</v>
       </c>
       <c r="L11">
-        <v>0.9671606997955488</v>
+        <v>0.987012460693269</v>
       </c>
       <c r="M11">
-        <v>0.9125327672622761</v>
+        <v>0.9369665491801898</v>
       </c>
       <c r="N11">
-        <v>0.9686026871154542</v>
+        <v>0.9904504212811037</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9323727601481281</v>
+        <v>0.9563130513327178</v>
       </c>
       <c r="D12">
-        <v>0.9660160911559268</v>
+        <v>0.9851011383111591</v>
       </c>
       <c r="E12">
-        <v>0.9492077206513303</v>
+        <v>0.9703505942562286</v>
       </c>
       <c r="F12">
-        <v>0.8917906305795851</v>
+        <v>0.9179983650632045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022118588167617</v>
+        <v>1.030421724531782</v>
       </c>
       <c r="J12">
-        <v>0.965343096246017</v>
+        <v>0.9880887272140594</v>
       </c>
       <c r="K12">
-        <v>0.9818246744984763</v>
+        <v>1.000519453906195</v>
       </c>
       <c r="L12">
-        <v>0.9653773047151814</v>
+        <v>0.9860687621614018</v>
       </c>
       <c r="M12">
-        <v>0.9093327248650368</v>
+        <v>0.9348853808543084</v>
       </c>
       <c r="N12">
-        <v>0.9667139941690872</v>
+        <v>0.9894919265420643</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9329116918512942</v>
+        <v>0.9566343430540796</v>
       </c>
       <c r="D13">
-        <v>0.9664128459589749</v>
+        <v>0.9853298508366026</v>
       </c>
       <c r="E13">
-        <v>0.9496496265362177</v>
+        <v>0.9706049774447921</v>
       </c>
       <c r="F13">
-        <v>0.8925534150319544</v>
+        <v>0.9185088473219954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022262633106208</v>
+        <v>1.030495040201857</v>
       </c>
       <c r="J13">
-        <v>0.9657499447812253</v>
+        <v>0.988294752191031</v>
       </c>
       <c r="K13">
-        <v>0.9821668006861926</v>
+        <v>1.000698610793793</v>
       </c>
       <c r="L13">
-        <v>0.9657619698112726</v>
+        <v>0.9862718607457013</v>
       </c>
       <c r="M13">
-        <v>0.9100234793459439</v>
+        <v>0.9353336164809717</v>
       </c>
       <c r="N13">
-        <v>0.9671214204758813</v>
+        <v>0.989698244098135</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9346661697908956</v>
+        <v>0.9576830261102217</v>
       </c>
       <c r="D14">
-        <v>0.9677048275757824</v>
+        <v>0.9860765260528989</v>
       </c>
       <c r="E14">
-        <v>0.9510886893768458</v>
+        <v>0.9714355674717303</v>
       </c>
       <c r="F14">
-        <v>0.8950343505722441</v>
+        <v>0.9201735906965803</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022731189922655</v>
+        <v>1.030733989335756</v>
       </c>
       <c r="J14">
-        <v>0.9670742361221351</v>
+        <v>0.988967066712091</v>
       </c>
       <c r="K14">
-        <v>0.9832804193392994</v>
+        <v>1.001283204503987</v>
       </c>
       <c r="L14">
-        <v>0.9670142312108657</v>
+        <v>0.9869347556207488</v>
       </c>
       <c r="M14">
-        <v>0.9122701846087552</v>
+        <v>0.936795333146283</v>
       </c>
       <c r="N14">
-        <v>0.9684475924623938</v>
+        <v>0.9903715133829299</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.935738611128586</v>
+        <v>0.9583260848933697</v>
       </c>
       <c r="D15">
-        <v>0.9684948292788668</v>
+        <v>0.9865345169455986</v>
       </c>
       <c r="E15">
-        <v>0.9519686686444725</v>
+        <v>0.9719451130778435</v>
       </c>
       <c r="F15">
-        <v>0.8965491477196208</v>
+        <v>0.9211933358474117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02301730859285</v>
+        <v>1.030880245470019</v>
       </c>
       <c r="J15">
-        <v>0.9678835735906832</v>
+        <v>0.9893792249279374</v>
       </c>
       <c r="K15">
-        <v>0.9839610007536043</v>
+        <v>1.001641552022172</v>
       </c>
       <c r="L15">
-        <v>0.9677796812841221</v>
+        <v>0.987341237975333</v>
       </c>
       <c r="M15">
-        <v>0.9136419959638368</v>
+        <v>0.9376906863044026</v>
       </c>
       <c r="N15">
-        <v>0.9692580792829795</v>
+        <v>0.9907842569107184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9418561253126502</v>
+        <v>0.9620234082226906</v>
       </c>
       <c r="D16">
-        <v>0.973004954273386</v>
+        <v>0.9891695727420321</v>
       </c>
       <c r="E16">
-        <v>0.956993212345952</v>
+        <v>0.9748780932599218</v>
       </c>
       <c r="F16">
-        <v>0.9051663437373684</v>
+        <v>0.927040917585387</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024644925519907</v>
+        <v>1.031717039767095</v>
       </c>
       <c r="J16">
-        <v>0.9724980132025394</v>
+        <v>0.9917473084388636</v>
       </c>
       <c r="K16">
-        <v>0.987841170613551</v>
+        <v>1.003699904656003</v>
       </c>
       <c r="L16">
-        <v>0.9721458382268191</v>
+        <v>0.9896781835345398</v>
       </c>
       <c r="M16">
-        <v>0.9214460346079762</v>
+        <v>0.9428244736418971</v>
       </c>
       <c r="N16">
-        <v>0.973879071928368</v>
+        <v>0.9931557033718532</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9455898343111359</v>
+        <v>0.9643038812212785</v>
       </c>
       <c r="D17">
-        <v>0.975760608392977</v>
+        <v>0.9907963226336404</v>
       </c>
       <c r="E17">
-        <v>0.9600639146750831</v>
+        <v>0.976689950397466</v>
       </c>
       <c r="F17">
-        <v>0.9104069041220415</v>
+        <v>0.9306349451261337</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025634278451768</v>
+        <v>1.032229503467682</v>
       </c>
       <c r="J17">
-        <v>0.9753123498072898</v>
+        <v>0.9932064596545112</v>
       </c>
       <c r="K17">
-        <v>0.9902074229355976</v>
+        <v>1.004967673312518</v>
       </c>
       <c r="L17">
-        <v>0.9748103779792924</v>
+        <v>0.9911194179200393</v>
       </c>
       <c r="M17">
-        <v>0.9261920884642419</v>
+        <v>0.9459792863480434</v>
       </c>
       <c r="N17">
-        <v>0.9766974052139061</v>
+        <v>0.994616926749594</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9477325189227399</v>
+        <v>0.9656205906889104</v>
       </c>
       <c r="D18">
-        <v>0.9773429814867253</v>
+        <v>0.9917360734636494</v>
       </c>
       <c r="E18">
-        <v>0.9618275007151773</v>
+        <v>0.9777370767404584</v>
       </c>
       <c r="F18">
-        <v>0.913408266080471</v>
+        <v>0.9327058509715006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026200552986993</v>
+        <v>1.032524053675495</v>
       </c>
       <c r="J18">
-        <v>0.9769266985404369</v>
+        <v>0.9940484222468861</v>
       </c>
       <c r="K18">
-        <v>0.9915646112979679</v>
+        <v>1.005698994189091</v>
       </c>
       <c r="L18">
-        <v>0.9763393623338115</v>
+        <v>0.991951490812305</v>
       </c>
       <c r="M18">
-        <v>0.9289101726202454</v>
+        <v>0.9477969026717735</v>
       </c>
       <c r="N18">
-        <v>0.9783140465074229</v>
+        <v>0.9954600850254244</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9484573577103469</v>
+        <v>0.9660673198105559</v>
       </c>
       <c r="D19">
-        <v>0.9778784304697273</v>
+        <v>0.9920549888694155</v>
       </c>
       <c r="E19">
-        <v>0.962424323960576</v>
+        <v>0.9780925076335885</v>
       </c>
       <c r="F19">
-        <v>0.9144226131973697</v>
+        <v>0.9334077747573762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026391858692807</v>
+        <v>1.032623758854569</v>
       </c>
       <c r="J19">
-        <v>0.977472683990345</v>
+        <v>0.9943339907164696</v>
       </c>
       <c r="K19">
-        <v>0.9920235970810621</v>
+        <v>1.00594699912838</v>
       </c>
       <c r="L19">
-        <v>0.97685656996196</v>
+        <v>0.9922337803789426</v>
       </c>
       <c r="M19">
-        <v>0.9298287652848023</v>
+        <v>0.9484129368057361</v>
       </c>
       <c r="N19">
-        <v>0.9788608073192954</v>
+        <v>0.9957460590349898</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9451929233391628</v>
+        <v>0.964060610710498</v>
       </c>
       <c r="D20">
-        <v>0.9754675660566411</v>
+        <v>0.9906227364957843</v>
       </c>
       <c r="E20">
-        <v>0.9597373386346821</v>
+        <v>0.9764965664567387</v>
       </c>
       <c r="F20">
-        <v>0.9098504538605415</v>
+        <v>0.9302519971959041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02552925982278</v>
+        <v>1.032174974684166</v>
       </c>
       <c r="J20">
-        <v>0.9750132482360365</v>
+        <v>0.9930508588244349</v>
       </c>
       <c r="K20">
-        <v>0.9899559556526719</v>
+        <v>1.004832502516995</v>
       </c>
       <c r="L20">
-        <v>0.9745271375107589</v>
+        <v>0.9909656809221096</v>
       </c>
       <c r="M20">
-        <v>0.9256881508882119</v>
+        <v>0.9456431585324522</v>
       </c>
       <c r="N20">
-        <v>0.9763978788841147</v>
+        <v>0.9944611049484913</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.934151316029709</v>
+        <v>0.9573748577484753</v>
       </c>
       <c r="D21">
-        <v>0.9673256377009244</v>
+        <v>0.9858570800223303</v>
       </c>
       <c r="E21">
-        <v>0.950666323276919</v>
+        <v>0.9711914417245784</v>
       </c>
       <c r="F21">
-        <v>0.8943066770495993</v>
+        <v>0.919684614394076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022593751968106</v>
+        <v>1.030663827244927</v>
       </c>
       <c r="J21">
-        <v>0.9666856521063741</v>
+        <v>0.9887695216284189</v>
       </c>
       <c r="K21">
-        <v>0.9829536531200451</v>
+        <v>1.001111441278055</v>
       </c>
       <c r="L21">
-        <v>0.9666467546852242</v>
+        <v>0.9867399576094886</v>
       </c>
       <c r="M21">
-        <v>0.9116112056032833</v>
+        <v>0.936365996298295</v>
       </c>
       <c r="N21">
-        <v>0.9680584566127592</v>
+        <v>0.9901736877625805</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9268414357615579</v>
+        <v>0.9530385639919903</v>
       </c>
       <c r="D22">
-        <v>0.9619470576300051</v>
+        <v>0.9827715816879695</v>
       </c>
       <c r="E22">
-        <v>0.9446759894735522</v>
+        <v>0.9677604115767918</v>
       </c>
       <c r="F22">
-        <v>0.8839419964850999</v>
+        <v>0.9127835218224041</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020637195808038</v>
+        <v>1.029671738338114</v>
       </c>
       <c r="J22">
-        <v>0.9611658561497987</v>
+        <v>0.9859878547317604</v>
       </c>
       <c r="K22">
-        <v>0.9783120161539007</v>
+        <v>0.9986922411367559</v>
       </c>
       <c r="L22">
-        <v>0.9614293061864746</v>
+        <v>0.9839987869850653</v>
       </c>
       <c r="M22">
-        <v>0.9022257399812571</v>
+        <v>0.9303062018680118</v>
       </c>
       <c r="N22">
-        <v>0.9625308219127959</v>
+        <v>0.9873880705798671</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9307541699380215</v>
+        <v>0.9553504896026851</v>
       </c>
       <c r="D23">
-        <v>0.9648248191439509</v>
+        <v>0.9844160808375566</v>
       </c>
       <c r="E23">
-        <v>0.9478809222897604</v>
+        <v>0.969588736718609</v>
       </c>
       <c r="F23">
-        <v>0.8894977140020719</v>
+        <v>0.9164677416074754</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021685654428877</v>
+        <v>1.030201780809007</v>
       </c>
       <c r="J23">
-        <v>0.9641210310149765</v>
+        <v>0.9874713733144745</v>
       </c>
       <c r="K23">
-        <v>0.9807970203935518</v>
+        <v>0.9999825750136884</v>
       </c>
       <c r="L23">
-        <v>0.9642220263223878</v>
+        <v>0.9854602885134159</v>
       </c>
       <c r="M23">
-        <v>0.9072563747411021</v>
+        <v>0.9335413712902593</v>
       </c>
       <c r="N23">
-        <v>0.9654901934652457</v>
+        <v>0.9888736959291309</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9453723783392139</v>
+        <v>0.9641705756321887</v>
       </c>
       <c r="D24">
-        <v>0.975600056029713</v>
+        <v>0.9907012006618241</v>
       </c>
       <c r="E24">
-        <v>0.9598849888755456</v>
+        <v>0.9765839782242062</v>
       </c>
       <c r="F24">
-        <v>0.9101020599309171</v>
+        <v>0.9304251131744669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025576746449857</v>
+        <v>1.032199627343489</v>
       </c>
       <c r="J24">
-        <v>0.9751484830354593</v>
+        <v>0.9931211962947046</v>
       </c>
       <c r="K24">
-        <v>0.9900696536624111</v>
+        <v>1.00489360549292</v>
       </c>
       <c r="L24">
-        <v>0.9746551991819531</v>
+        <v>0.991035174478624</v>
       </c>
       <c r="M24">
-        <v>0.9259160128991576</v>
+        <v>0.9457951096054994</v>
       </c>
       <c r="N24">
-        <v>0.9765333057324641</v>
+        <v>0.9945315423060368</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9609733168319805</v>
+        <v>0.9738825096612465</v>
       </c>
       <c r="D25">
-        <v>0.9871356008685744</v>
+        <v>0.9976402943869833</v>
       </c>
       <c r="E25">
-        <v>0.9727478736156515</v>
+        <v>0.9843241886980318</v>
       </c>
       <c r="F25">
-        <v>0.9318660286974784</v>
+        <v>0.9456342818265703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029672604387514</v>
+        <v>1.034347955162796</v>
       </c>
       <c r="J25">
-        <v>0.9868894511346127</v>
+        <v>0.9993219737976505</v>
       </c>
       <c r="K25">
-        <v>0.9999369576535074</v>
+        <v>1.010275352525323</v>
       </c>
       <c r="L25">
-        <v>0.9857845080860942</v>
+        <v>0.9971708254827659</v>
       </c>
       <c r="M25">
-        <v>0.9456229229904116</v>
+        <v>0.959139571153595</v>
       </c>
       <c r="N25">
-        <v>0.9882909473530259</v>
+        <v>1.000741125624276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9812586133830258</v>
+        <v>0.9879681436042598</v>
       </c>
       <c r="D2">
-        <v>1.002921172077837</v>
+        <v>1.0078809099374</v>
       </c>
       <c r="E2">
-        <v>0.9902299979779348</v>
+        <v>0.9960833130885319</v>
       </c>
       <c r="F2">
-        <v>0.9570903977804195</v>
+        <v>1.01141002982005</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035936356589171</v>
+        <v>1.038032876290617</v>
       </c>
       <c r="J2">
-        <v>1.004014699930389</v>
+        <v>1.010514779058571</v>
       </c>
       <c r="K2">
-        <v>1.014339959801721</v>
+        <v>1.019231532269067</v>
       </c>
       <c r="L2">
-        <v>1.001827143691867</v>
+        <v>1.007597484627509</v>
       </c>
       <c r="M2">
-        <v>0.9691817681405965</v>
+        <v>1.022712660926318</v>
       </c>
       <c r="N2">
-        <v>1.005440515966386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007470345965243</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.026547800244799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +480,93 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.98642186734712</v>
+        <v>0.9917289447898845</v>
       </c>
       <c r="D3">
-        <v>1.006622155523602</v>
+        <v>1.010402205576364</v>
       </c>
       <c r="E3">
-        <v>0.9943785047896495</v>
+        <v>0.9990204399703434</v>
       </c>
       <c r="F3">
-        <v>0.9650678297242814</v>
+        <v>1.014451957280816</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037022255994917</v>
+        <v>1.038629699283488</v>
       </c>
       <c r="J3">
-        <v>1.00728965678305</v>
+        <v>1.012447655107884</v>
       </c>
       <c r="K3">
-        <v>1.017171000070378</v>
+        <v>1.020903696133927</v>
       </c>
       <c r="L3">
-        <v>1.005083822633846</v>
+        <v>1.009665869812596</v>
       </c>
       <c r="M3">
-        <v>0.97616808611773</v>
+        <v>1.024903202652721</v>
       </c>
       <c r="N3">
-        <v>1.00872012363342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008127768187919</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.028281499390801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9896802791582584</v>
+        <v>0.9941163298969062</v>
       </c>
       <c r="D4">
-        <v>1.008959236166153</v>
+        <v>1.01200413253258</v>
       </c>
       <c r="E4">
-        <v>0.9970028379138142</v>
+        <v>1.000890820218781</v>
       </c>
       <c r="F4">
-        <v>0.9700865554186685</v>
+        <v>1.01639063423373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037695203647898</v>
+        <v>1.038997331976319</v>
       </c>
       <c r="J4">
-        <v>1.009351699671943</v>
+        <v>1.01367174748069</v>
       </c>
       <c r="K4">
-        <v>1.018950720454457</v>
+        <v>1.021959805374354</v>
       </c>
       <c r="L4">
-        <v>1.007137571148203</v>
+        <v>1.010978505702801</v>
       </c>
       <c r="M4">
-        <v>0.9805599397722325</v>
+        <v>1.026295183077376</v>
       </c>
       <c r="N4">
-        <v>1.010785094859735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008543867285644</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.029383176786939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9910312380675786</v>
+        <v>0.9951092712885997</v>
       </c>
       <c r="D5">
-        <v>1.009928480752563</v>
+        <v>1.012670672463427</v>
       </c>
       <c r="E5">
-        <v>0.9980923633799191</v>
+        <v>1.001670105752085</v>
       </c>
       <c r="F5">
-        <v>0.9721640921824869</v>
+        <v>1.017198756182622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037971203737642</v>
+        <v>1.039147494803184</v>
       </c>
       <c r="J5">
-        <v>1.010205489002828</v>
+        <v>1.014180131528807</v>
       </c>
       <c r="K5">
-        <v>1.019686904029708</v>
+        <v>1.02239771454675</v>
       </c>
       <c r="L5">
-        <v>1.007988686823777</v>
+        <v>1.011524320444458</v>
       </c>
       <c r="M5">
-        <v>0.9823771312210657</v>
+        <v>1.026874436019553</v>
       </c>
       <c r="N5">
-        <v>1.011640096669401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008716617541685</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.029841623717511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9912569876935295</v>
+        <v>0.9952753712821432</v>
       </c>
       <c r="D6">
-        <v>1.010090458664472</v>
+        <v>1.01278218668178</v>
       </c>
       <c r="E6">
-        <v>0.9982745109600686</v>
+        <v>1.0018005448887</v>
       </c>
       <c r="F6">
-        <v>0.9725110772817098</v>
+        <v>1.017334044634046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038017145978706</v>
+        <v>1.039172451819949</v>
       </c>
       <c r="J6">
-        <v>1.010348091996785</v>
+        <v>1.014265130564775</v>
       </c>
       <c r="K6">
-        <v>1.019809821339247</v>
+        <v>1.022470888321157</v>
       </c>
       <c r="L6">
-        <v>1.008130887701435</v>
+        <v>1.011615616430745</v>
       </c>
       <c r="M6">
-        <v>0.9826805830411163</v>
+        <v>1.02697135150374</v>
       </c>
       <c r="N6">
-        <v>1.011782902175966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008745496717889</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.029918326977617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9896984037837625</v>
+        <v>0.9941296393145447</v>
       </c>
       <c r="D7">
-        <v>1.008972238678032</v>
+        <v>1.012013065819671</v>
       </c>
       <c r="E7">
-        <v>0.9970174494137416</v>
+        <v>1.000901260412697</v>
       </c>
       <c r="F7">
-        <v>0.9701144401646692</v>
+        <v>1.016401459240621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03769891845573</v>
+        <v>1.038999355642031</v>
       </c>
       <c r="J7">
-        <v>1.009363158770865</v>
+        <v>1.013678564801744</v>
       </c>
       <c r="K7">
-        <v>1.018960603966498</v>
+        <v>1.021965680469565</v>
       </c>
       <c r="L7">
-        <v>1.007148991366679</v>
+        <v>1.010985822359725</v>
       </c>
       <c r="M7">
-        <v>0.9805843335651009</v>
+        <v>1.026302946203114</v>
       </c>
       <c r="N7">
-        <v>1.010796570231892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008546184078035</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.029389320877145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9830212078265915</v>
+        <v>0.989248868727306</v>
       </c>
       <c r="D8">
-        <v>1.004184228118039</v>
+        <v>1.008739202459195</v>
       </c>
       <c r="E8">
-        <v>0.9916448258357862</v>
+        <v>0.9970822874045586</v>
       </c>
       <c r="F8">
-        <v>0.9598172851298727</v>
+        <v>1.012444327020239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036309618703318</v>
+        <v>1.03823844839725</v>
       </c>
       <c r="J8">
-        <v>1.005133660727772</v>
+        <v>1.011173602478272</v>
       </c>
       <c r="K8">
-        <v>1.015307818117783</v>
+        <v>1.019802082771113</v>
       </c>
       <c r="L8">
-        <v>1.002939175472347</v>
+        <v>1.008301926552778</v>
       </c>
       <c r="M8">
-        <v>0.9715705449041413</v>
+        <v>1.023458329695382</v>
       </c>
       <c r="N8">
-        <v>1.006561065816448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007694479413348</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.027137958546237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9705794562535873</v>
+        <v>0.9802800321995306</v>
       </c>
       <c r="D9">
-        <v>0.9952783284605595</v>
+        <v>1.002736772697125</v>
       </c>
       <c r="E9">
-        <v>0.9816872198633353</v>
+        <v>0.9901129129365528</v>
       </c>
       <c r="F9">
-        <v>0.9404786933976196</v>
+        <v>1.005234821669377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033624026447696</v>
+        <v>1.036753110087695</v>
       </c>
       <c r="J9">
-        <v>0.9972156875565173</v>
+        <v>1.006548901080051</v>
       </c>
       <c r="K9">
-        <v>1.0084484788405</v>
+        <v>1.015785603180729</v>
       </c>
       <c r="L9">
-        <v>0.9950845651704894</v>
+        <v>1.00336846424572</v>
       </c>
       <c r="M9">
-        <v>0.954617398002966</v>
+        <v>1.018243534679092</v>
       </c>
       <c r="N9">
-        <v>0.9986318482150854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006120204152273</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023010707044785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9617638360570306</v>
+        <v>0.9741307169599759</v>
       </c>
       <c r="D10">
-        <v>0.9889844797377276</v>
+        <v>0.9986437268660505</v>
       </c>
       <c r="E10">
-        <v>0.9746719977729759</v>
+        <v>0.9853798890934191</v>
       </c>
       <c r="F10">
-        <v>0.9266312293963048</v>
+        <v>1.00058502122228</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031658527811398</v>
+        <v>1.03569461276663</v>
       </c>
       <c r="J10">
-        <v>0.9915811503080917</v>
+        <v>1.003409684784237</v>
       </c>
       <c r="K10">
-        <v>1.003555512442116</v>
+        <v>1.013037512497898</v>
       </c>
       <c r="L10">
-        <v>0.9895141275668614</v>
+        <v>1.000018228645503</v>
       </c>
       <c r="M10">
-        <v>0.94246482542412</v>
+        <v>1.014943720957911</v>
       </c>
       <c r="N10">
-        <v>0.9929893092774769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005054217671926</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.020451643940028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578059553837738</v>
+        <v>0.9721991864592224</v>
       </c>
       <c r="D11">
-        <v>0.9861640698149192</v>
+        <v>0.9974434272294513</v>
       </c>
       <c r="E11">
-        <v>0.9715329608110339</v>
+        <v>0.9839893377189298</v>
       </c>
       <c r="F11">
-        <v>0.9203685919800542</v>
+        <v>1.001110154946239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030761964082397</v>
+        <v>1.035473270618422</v>
       </c>
       <c r="J11">
-        <v>0.9890458627109079</v>
+        <v>1.002776057190802</v>
       </c>
       <c r="K11">
-        <v>1.001351715073798</v>
+        <v>1.012413718355488</v>
       </c>
       <c r="L11">
-        <v>0.987012460693269</v>
+        <v>0.9992196425797528</v>
       </c>
       <c r="M11">
-        <v>0.9369665491801898</v>
+        <v>1.016011165694838</v>
       </c>
       <c r="N11">
-        <v>0.9904504212811037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004871750216453</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021741226465997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9563130513327178</v>
+        <v>0.9717563913684306</v>
       </c>
       <c r="D12">
-        <v>0.9851011383111591</v>
+        <v>0.9972143812630757</v>
       </c>
       <c r="E12">
-        <v>0.9703505942562286</v>
+        <v>0.9837179244148281</v>
       </c>
       <c r="F12">
-        <v>0.9179983650632045</v>
+        <v>1.002170019079529</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030421724531782</v>
+        <v>1.035482984235997</v>
       </c>
       <c r="J12">
-        <v>0.9880887272140594</v>
+        <v>1.002806108653375</v>
       </c>
       <c r="K12">
-        <v>1.000519453906195</v>
+        <v>1.012395144631154</v>
       </c>
       <c r="L12">
-        <v>0.9860687621614018</v>
+        <v>0.9991638557290171</v>
       </c>
       <c r="M12">
-        <v>0.9348853808543084</v>
+        <v>1.017255762703194</v>
       </c>
       <c r="N12">
-        <v>0.9894919265420643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004909980063586</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.023057491178383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9566343430540796</v>
+        <v>0.9724248374710133</v>
       </c>
       <c r="D13">
-        <v>0.9853298508366026</v>
+        <v>0.9977127573657011</v>
       </c>
       <c r="E13">
-        <v>0.9706049774447921</v>
+        <v>0.9842830638997327</v>
       </c>
       <c r="F13">
-        <v>0.9185088473219954</v>
+        <v>1.003732103465749</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030495040201857</v>
+        <v>1.035673745970149</v>
       </c>
       <c r="J13">
-        <v>0.988294752191031</v>
+        <v>1.003346797739362</v>
       </c>
       <c r="K13">
-        <v>1.000698610793793</v>
+        <v>1.012839727224418</v>
       </c>
       <c r="L13">
-        <v>0.9862718607457013</v>
+        <v>0.9996726301997673</v>
       </c>
       <c r="M13">
-        <v>0.9353336164809717</v>
+        <v>1.018744354977129</v>
       </c>
       <c r="N13">
-        <v>0.989698244098135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005119708027058</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.024514976104065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576830261102217</v>
+        <v>0.9733852098107584</v>
       </c>
       <c r="D14">
-        <v>0.9860765260528989</v>
+        <v>0.9983832370405894</v>
       </c>
       <c r="E14">
-        <v>0.9714355674717303</v>
+        <v>0.9850482847228984</v>
       </c>
       <c r="F14">
-        <v>0.9201735906965803</v>
+        <v>1.005025182031113</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030733989335756</v>
+        <v>1.035885731718954</v>
       </c>
       <c r="J14">
-        <v>0.988967066712091</v>
+        <v>1.003946001821203</v>
       </c>
       <c r="K14">
-        <v>1.001283204503987</v>
+        <v>1.013352716668478</v>
       </c>
       <c r="L14">
-        <v>0.9869347556207488</v>
+        <v>1.000275133630893</v>
       </c>
       <c r="M14">
-        <v>0.936795333146283</v>
+        <v>1.019869794304928</v>
       </c>
       <c r="N14">
-        <v>0.9903715133829299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005340566694432</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025579894369893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583260848933697</v>
+        <v>0.9738692146994039</v>
       </c>
       <c r="D15">
-        <v>0.9865345169455986</v>
+        <v>0.998711132214404</v>
       </c>
       <c r="E15">
-        <v>0.9719451130778435</v>
+        <v>0.9854245264473839</v>
       </c>
       <c r="F15">
-        <v>0.9211933358474117</v>
+        <v>1.005497717492139</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030880245470019</v>
+        <v>1.035979494202205</v>
       </c>
       <c r="J15">
-        <v>0.9893792249279374</v>
+        <v>1.004213022744954</v>
       </c>
       <c r="K15">
-        <v>1.001641552022172</v>
+        <v>1.013585332658587</v>
       </c>
       <c r="L15">
-        <v>0.987341237975333</v>
+        <v>1.000553161494681</v>
       </c>
       <c r="M15">
-        <v>0.9376906863044026</v>
+        <v>1.020245338772243</v>
       </c>
       <c r="N15">
-        <v>0.9907842569107184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00543499492383</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.025914633436695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9620234082226906</v>
+        <v>0.9763207658797048</v>
       </c>
       <c r="D16">
-        <v>0.9891695727420321</v>
+        <v>1.00032853752268</v>
       </c>
       <c r="E16">
-        <v>0.9748780932599218</v>
+        <v>0.9872934643471123</v>
       </c>
       <c r="F16">
-        <v>0.927040917585387</v>
+        <v>1.007202501470543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031717039767095</v>
+        <v>1.036397035790109</v>
       </c>
       <c r="J16">
-        <v>0.9917473084388636</v>
+        <v>1.005426513992063</v>
       </c>
       <c r="K16">
-        <v>1.003699904656003</v>
+        <v>1.014655202344776</v>
       </c>
       <c r="L16">
-        <v>0.9896781835345398</v>
+        <v>1.001858627736129</v>
       </c>
       <c r="M16">
-        <v>0.9428244736418971</v>
+        <v>1.021406619628427</v>
       </c>
       <c r="N16">
-        <v>0.9931557033718532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005841784792195</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.026793387612996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9643038812212785</v>
+        <v>0.9777069055834966</v>
       </c>
       <c r="D17">
-        <v>0.9907963226336404</v>
+        <v>1.001224714076853</v>
       </c>
       <c r="E17">
-        <v>0.976689950397466</v>
+        <v>0.9883350870560796</v>
       </c>
       <c r="F17">
-        <v>0.9306349451261337</v>
+        <v>1.007838584037692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032229503467682</v>
+        <v>1.036605879177141</v>
       </c>
       <c r="J17">
-        <v>0.9932064596545112</v>
+        <v>1.006049576852912</v>
       </c>
       <c r="K17">
-        <v>1.004967673312518</v>
+        <v>1.015211303641333</v>
       </c>
       <c r="L17">
-        <v>0.9911194179200393</v>
+        <v>1.002550783205261</v>
       </c>
       <c r="M17">
-        <v>0.9459792863480434</v>
+        <v>1.021710556340483</v>
       </c>
       <c r="N17">
-        <v>0.994616926749594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00604000677987</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.026903179680751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9656205906889104</v>
+        <v>0.9782763056195741</v>
       </c>
       <c r="D18">
-        <v>0.9917360734636494</v>
+        <v>1.001560073034235</v>
       </c>
       <c r="E18">
-        <v>0.9777370767404584</v>
+        <v>0.9887320813039886</v>
       </c>
       <c r="F18">
-        <v>0.9327058509715006</v>
+        <v>1.007446568246293</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032524053675495</v>
+        <v>1.036646317124545</v>
       </c>
       <c r="J18">
-        <v>0.9940484222468861</v>
+        <v>1.006185896512181</v>
       </c>
       <c r="K18">
-        <v>1.005698994189091</v>
+        <v>1.015351931812604</v>
       </c>
       <c r="L18">
-        <v>0.991951490812305</v>
+        <v>1.002748190226548</v>
       </c>
       <c r="M18">
-        <v>0.9477969026717735</v>
+        <v>1.021137990379405</v>
       </c>
       <c r="N18">
-        <v>0.9954600850254244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006064536920243</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.026209813388629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9660673198105559</v>
+        <v>0.9780755818550779</v>
       </c>
       <c r="D19">
-        <v>0.9920549888694155</v>
+        <v>1.001367622010261</v>
       </c>
       <c r="E19">
-        <v>0.9780925076335885</v>
+        <v>0.988518833152125</v>
       </c>
       <c r="F19">
-        <v>0.9334077747573762</v>
+        <v>1.006013828096558</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032623758854569</v>
+        <v>1.036528463020276</v>
       </c>
       <c r="J19">
-        <v>0.9943339907164696</v>
+        <v>1.005853602879152</v>
       </c>
       <c r="K19">
-        <v>1.00594699912838</v>
+        <v>1.015098373276873</v>
       </c>
       <c r="L19">
-        <v>0.9922337803789426</v>
+        <v>1.002473108327762</v>
       </c>
       <c r="M19">
-        <v>0.9484129368057361</v>
+        <v>1.019665565379638</v>
       </c>
       <c r="N19">
-        <v>0.9957460590349898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005924761702535</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.02471497906621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964060610710498</v>
+        <v>0.9757278871173656</v>
       </c>
       <c r="D20">
-        <v>0.9906227364957843</v>
+        <v>0.9997060860307222</v>
       </c>
       <c r="E20">
-        <v>0.9764965664567387</v>
+        <v>0.9866069436019621</v>
       </c>
       <c r="F20">
-        <v>0.9302519971959041</v>
+        <v>1.001800805534315</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032174974684166</v>
+        <v>1.035974071321064</v>
       </c>
       <c r="J20">
-        <v>0.9930508588244349</v>
+        <v>1.004227621010711</v>
       </c>
       <c r="K20">
-        <v>1.004832502516995</v>
+        <v>1.013754105530886</v>
       </c>
       <c r="L20">
-        <v>0.9909656809221096</v>
+        <v>1.00088945408903</v>
       </c>
       <c r="M20">
-        <v>0.9456431585324522</v>
+        <v>1.015812063684659</v>
       </c>
       <c r="N20">
-        <v>0.9944611049484913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005332185855302</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.02112807798808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573748577484753</v>
+        <v>0.9709543603124255</v>
       </c>
       <c r="D21">
-        <v>0.9858570800223303</v>
+        <v>0.9965192672415845</v>
       </c>
       <c r="E21">
-        <v>0.9711914417245784</v>
+        <v>0.9829291795037207</v>
       </c>
       <c r="F21">
-        <v>0.919684614394076</v>
+        <v>0.9978171015935231</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030663827244927</v>
+        <v>1.035110528075888</v>
       </c>
       <c r="J21">
-        <v>0.9887695216284189</v>
+        <v>1.001718744386689</v>
       </c>
       <c r="K21">
-        <v>1.001111441278055</v>
+        <v>1.01156688459795</v>
       </c>
       <c r="L21">
-        <v>0.9867399576094886</v>
+        <v>0.9982413453879233</v>
       </c>
       <c r="M21">
-        <v>0.936365996298295</v>
+        <v>1.012839948004311</v>
       </c>
       <c r="N21">
-        <v>0.9901736877625805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00447413635102</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.018734009716995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9530385639919903</v>
+        <v>0.9679385595223405</v>
       </c>
       <c r="D22">
-        <v>0.9827715816879695</v>
+        <v>0.9945146747994967</v>
       </c>
       <c r="E22">
-        <v>0.9677604115767918</v>
+        <v>0.9806192701543289</v>
       </c>
       <c r="F22">
-        <v>0.9127835218224041</v>
+        <v>0.995434447656888</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029671738338114</v>
+        <v>1.03456147496723</v>
       </c>
       <c r="J22">
-        <v>0.9859878547317604</v>
+        <v>1.000153433752137</v>
       </c>
       <c r="K22">
-        <v>0.9986922411367559</v>
+        <v>1.010195585912371</v>
       </c>
       <c r="L22">
-        <v>0.9839987869850653</v>
+        <v>0.9965846944851283</v>
       </c>
       <c r="M22">
-        <v>0.9303062018680118</v>
+        <v>1.011096894857695</v>
       </c>
       <c r="N22">
-        <v>0.9873880705798671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003940401074005</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.017354455216171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9553504896026851</v>
+        <v>0.9695434704526665</v>
       </c>
       <c r="D23">
-        <v>0.9844160808375566</v>
+        <v>0.9955810596163981</v>
       </c>
       <c r="E23">
-        <v>0.969588736718609</v>
+        <v>0.9818477369052382</v>
       </c>
       <c r="F23">
-        <v>0.9164677416074754</v>
+        <v>0.9967014616086202</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030201780809007</v>
+        <v>1.034854655402146</v>
       </c>
       <c r="J23">
-        <v>0.9874713733144745</v>
+        <v>1.000986604657152</v>
       </c>
       <c r="K23">
-        <v>0.9999825750136884</v>
+        <v>1.01092571340007</v>
       </c>
       <c r="L23">
-        <v>0.9854602885134159</v>
+        <v>0.9974662028948934</v>
       </c>
       <c r="M23">
-        <v>0.9335413712902593</v>
+        <v>1.012024213693906</v>
       </c>
       <c r="N23">
-        <v>0.9888736959291309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004224508300234</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.018088390093111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9641705756321887</v>
+        <v>0.9757278112091551</v>
       </c>
       <c r="D24">
-        <v>0.9907012006618241</v>
+        <v>0.9996984028502532</v>
       </c>
       <c r="E24">
-        <v>0.9765839782242062</v>
+        <v>0.9865984464817046</v>
       </c>
       <c r="F24">
-        <v>0.9304251131744669</v>
+        <v>1.001604336417179</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032199627343489</v>
+        <v>1.035962417308909</v>
       </c>
       <c r="J24">
-        <v>0.9931211962947046</v>
+        <v>1.004193311103429</v>
       </c>
       <c r="K24">
-        <v>1.00489360549292</v>
+        <v>1.013730816943406</v>
       </c>
       <c r="L24">
-        <v>0.991035174478624</v>
+        <v>1.000865068079026</v>
       </c>
       <c r="M24">
-        <v>0.9457951096054994</v>
+        <v>1.015603336565939</v>
       </c>
       <c r="N24">
-        <v>0.9945315423060368</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005317635696404</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020921111655819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9738825096612465</v>
+        <v>0.9826445625517826</v>
       </c>
       <c r="D25">
-        <v>0.9976402943869833</v>
+        <v>1.004317291290949</v>
       </c>
       <c r="E25">
-        <v>0.9843241886980318</v>
+        <v>0.9919444099960434</v>
       </c>
       <c r="F25">
-        <v>0.9456342818265703</v>
+        <v>1.007128058201912</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034347955162796</v>
+        <v>1.037154591425604</v>
       </c>
       <c r="J25">
-        <v>0.9993219737976505</v>
+        <v>1.007770463414534</v>
       </c>
       <c r="K25">
-        <v>1.010275352525323</v>
+        <v>1.016848954536941</v>
       </c>
       <c r="L25">
-        <v>0.9971708254827659</v>
+        <v>1.004669079193106</v>
       </c>
       <c r="M25">
-        <v>0.959139571153595</v>
+        <v>1.019616718903844</v>
       </c>
       <c r="N25">
-        <v>1.000741125624276</v>
+        <v>1.006536228878496</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024097516651357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9879681436042598</v>
+        <v>0.989102955032564</v>
       </c>
       <c r="D2">
-        <v>1.0078809099374</v>
+        <v>1.009065566038016</v>
       </c>
       <c r="E2">
-        <v>0.9960833130885319</v>
+        <v>0.9970649362925119</v>
       </c>
       <c r="F2">
-        <v>1.01141002982005</v>
+        <v>1.011901633651821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.038032876290617</v>
+        <v>1.038524203923023</v>
       </c>
       <c r="J2">
-        <v>1.010514779058571</v>
+        <v>1.011614552698415</v>
       </c>
       <c r="K2">
-        <v>1.019231532269067</v>
+        <v>1.020400031549116</v>
       </c>
       <c r="L2">
-        <v>1.007597484627509</v>
+        <v>1.008565313232956</v>
       </c>
       <c r="M2">
-        <v>1.022712660926318</v>
+        <v>1.023197613023787</v>
       </c>
       <c r="N2">
-        <v>1.007470345965243</v>
+        <v>1.010314532186361</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.026547800244799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.02693161482986</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017624232154259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9917289447898845</v>
+        <v>0.992709267841751</v>
       </c>
       <c r="D3">
-        <v>1.010402205576364</v>
+        <v>1.011380981127429</v>
       </c>
       <c r="E3">
-        <v>0.9990204399703434</v>
+        <v>0.99986903595171</v>
       </c>
       <c r="F3">
-        <v>1.014451957280816</v>
+        <v>1.014876071751531</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.038629699283488</v>
+        <v>1.039035828738414</v>
       </c>
       <c r="J3">
-        <v>1.012447655107884</v>
+        <v>1.013400678253308</v>
       </c>
       <c r="K3">
-        <v>1.020903696133927</v>
+        <v>1.021870282103283</v>
       </c>
       <c r="L3">
-        <v>1.009665869812596</v>
+        <v>1.010503592761554</v>
       </c>
       <c r="M3">
-        <v>1.024903202652721</v>
+        <v>1.025322084014431</v>
       </c>
       <c r="N3">
-        <v>1.008127768187919</v>
+        <v>1.010798099421584</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.028281499390801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.028613021571056</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.017915134195599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9941163298969062</v>
+        <v>0.9949998689076377</v>
       </c>
       <c r="D4">
-        <v>1.01200413253258</v>
+        <v>1.012853130863386</v>
       </c>
       <c r="E4">
-        <v>1.000890820218781</v>
+        <v>1.001655922789032</v>
       </c>
       <c r="F4">
-        <v>1.01639063423373</v>
+        <v>1.016772552772179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.038997331976319</v>
+        <v>1.039349684036605</v>
       </c>
       <c r="J4">
-        <v>1.01367174748069</v>
+        <v>1.014532349172967</v>
       </c>
       <c r="K4">
-        <v>1.021959805374354</v>
+        <v>1.022798866010319</v>
       </c>
       <c r="L4">
-        <v>1.010978505702801</v>
+        <v>1.011734403283653</v>
       </c>
       <c r="M4">
-        <v>1.026295183077376</v>
+        <v>1.026672676212512</v>
       </c>
       <c r="N4">
-        <v>1.008543867285644</v>
+        <v>1.01110433137133</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.029383176786939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.029681941931599</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.01809613841796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9951092712885997</v>
+        <v>0.9959528488575841</v>
       </c>
       <c r="D5">
-        <v>1.012670672463427</v>
+        <v>1.013465907228982</v>
       </c>
       <c r="E5">
-        <v>1.001670105752085</v>
+        <v>1.002400701533186</v>
       </c>
       <c r="F5">
-        <v>1.017198756182622</v>
+        <v>1.017563271817335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.039147494803184</v>
+        <v>1.039477551717656</v>
       </c>
       <c r="J5">
-        <v>1.014180131528807</v>
+        <v>1.015002464447966</v>
       </c>
       <c r="K5">
-        <v>1.02239771454675</v>
+        <v>1.023183887955036</v>
       </c>
       <c r="L5">
-        <v>1.011524320444458</v>
+        <v>1.012246363098382</v>
       </c>
       <c r="M5">
-        <v>1.026874436019553</v>
+        <v>1.027234841431829</v>
       </c>
       <c r="N5">
-        <v>1.008716617541685</v>
+        <v>1.011231507225079</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.029841623717511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030126864679333</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018170526244437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9952753712821432</v>
+        <v>0.9961122807807535</v>
       </c>
       <c r="D6">
-        <v>1.01278218668178</v>
+        <v>1.013568440094898</v>
       </c>
       <c r="E6">
-        <v>1.0018005448887</v>
+        <v>1.00252538095405</v>
       </c>
       <c r="F6">
-        <v>1.017334044634046</v>
+        <v>1.017695657496112</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.039172451819949</v>
+        <v>1.039498783327019</v>
       </c>
       <c r="J6">
-        <v>1.014265130564775</v>
+        <v>1.015081071689193</v>
       </c>
       <c r="K6">
-        <v>1.022470888321157</v>
+        <v>1.023248223536089</v>
       </c>
       <c r="L6">
-        <v>1.011615616430745</v>
+        <v>1.012332006031906</v>
       </c>
       <c r="M6">
-        <v>1.02697135150374</v>
+        <v>1.027328905690245</v>
       </c>
       <c r="N6">
-        <v>1.008745496717889</v>
+        <v>1.011252769809872</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.029918326977617</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030201311321014</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018182916912437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9941296393145447</v>
+        <v>0.9950204245294022</v>
       </c>
       <c r="D7">
-        <v>1.012013065819671</v>
+        <v>1.012867164327941</v>
       </c>
       <c r="E7">
-        <v>1.000901260412697</v>
+        <v>1.001672846431131</v>
       </c>
       <c r="F7">
-        <v>1.016401459240621</v>
+        <v>1.016786508191627</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.038999355642031</v>
+        <v>1.039353945371821</v>
       </c>
       <c r="J7">
-        <v>1.013678564801744</v>
+        <v>1.014546234129018</v>
       </c>
       <c r="K7">
-        <v>1.021965680469565</v>
+        <v>1.022809785214248</v>
       </c>
       <c r="L7">
-        <v>1.010985822359725</v>
+        <v>1.011748128820449</v>
       </c>
       <c r="M7">
-        <v>1.026302946203114</v>
+        <v>1.026683535105221</v>
       </c>
       <c r="N7">
-        <v>1.008546184078035</v>
+        <v>1.011134032202742</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.029389320877145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.029690536148629</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018098778622989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.989248868727306</v>
+        <v>0.9903548519010942</v>
       </c>
       <c r="D8">
-        <v>1.008739202459195</v>
+        <v>1.009871654222239</v>
       </c>
       <c r="E8">
-        <v>0.9970822874045586</v>
+        <v>0.9980399057105938</v>
       </c>
       <c r="F8">
-        <v>1.012444327020239</v>
+        <v>1.012923225917766</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.03823844839725</v>
+        <v>1.03870859111233</v>
       </c>
       <c r="J8">
-        <v>1.011173602478272</v>
+        <v>1.012246587542091</v>
       </c>
       <c r="K8">
-        <v>1.019802082771113</v>
+        <v>1.020919547604775</v>
       </c>
       <c r="L8">
-        <v>1.008301926552778</v>
+        <v>1.009246493344518</v>
       </c>
       <c r="M8">
-        <v>1.023458329695382</v>
+        <v>1.023930943712847</v>
       </c>
       <c r="N8">
-        <v>1.007694479413348</v>
+        <v>1.010564558590716</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.027137958546237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027512007857889</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.017729163490255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9802800321995306</v>
+        <v>0.9817663351184418</v>
       </c>
       <c r="D9">
-        <v>1.002736772697125</v>
+        <v>1.004368822554329</v>
       </c>
       <c r="E9">
-        <v>0.9901129129365528</v>
+        <v>0.9913970684022155</v>
       </c>
       <c r="F9">
-        <v>1.005234821669377</v>
+        <v>1.005880424197762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.036753110087695</v>
+        <v>1.037429607387957</v>
       </c>
       <c r="J9">
-        <v>1.006548901080051</v>
+        <v>1.007979819244508</v>
       </c>
       <c r="K9">
-        <v>1.015785603180729</v>
+        <v>1.017391414111733</v>
       </c>
       <c r="L9">
-        <v>1.00336846424572</v>
+        <v>1.004631281477957</v>
       </c>
       <c r="M9">
-        <v>1.018243534679092</v>
+        <v>1.018878810680075</v>
       </c>
       <c r="N9">
-        <v>1.006120204152273</v>
+        <v>1.009418193762091</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023010707044785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.023513497818215</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017016095727796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9741307169599759</v>
+        <v>0.9759187271327828</v>
       </c>
       <c r="D10">
-        <v>0.9986437268660505</v>
+        <v>1.000647498857775</v>
       </c>
       <c r="E10">
-        <v>0.9853798890934191</v>
+        <v>0.9869229259523319</v>
       </c>
       <c r="F10">
-        <v>1.00058502122228</v>
+        <v>1.001362521443974</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.03569461276663</v>
+        <v>1.036524621260871</v>
       </c>
       <c r="J10">
-        <v>1.003409684784237</v>
+        <v>1.005121468303742</v>
       </c>
       <c r="K10">
-        <v>1.013037512497898</v>
+        <v>1.01500507234579</v>
       </c>
       <c r="L10">
-        <v>1.000018228645503</v>
+        <v>1.001532374539804</v>
       </c>
       <c r="M10">
-        <v>1.014943720957911</v>
+        <v>1.015707218645651</v>
       </c>
       <c r="N10">
-        <v>1.005054217671926</v>
+        <v>1.008763537864793</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020451643940028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.021055878993819</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016526945869172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9721991864592224</v>
+        <v>0.9741180195837249</v>
       </c>
       <c r="D11">
-        <v>0.9974434272294513</v>
+        <v>0.9995813230352496</v>
       </c>
       <c r="E11">
-        <v>0.9839893377189298</v>
+        <v>0.9856448539788766</v>
       </c>
       <c r="F11">
-        <v>1.001110154946239</v>
+        <v>1.001938025797753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.035473270618422</v>
+        <v>1.036357949789021</v>
       </c>
       <c r="J11">
-        <v>1.002776057190802</v>
+        <v>1.004608615723235</v>
       </c>
       <c r="K11">
-        <v>1.012413718355488</v>
+        <v>1.014511139311987</v>
       </c>
       <c r="L11">
-        <v>0.9992196425797528</v>
+        <v>1.000842661740948</v>
       </c>
       <c r="M11">
-        <v>1.016011165694838</v>
+        <v>1.016823486104669</v>
       </c>
       <c r="N11">
-        <v>1.004871750216453</v>
+        <v>1.00887874961869</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021741226465997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022383763001829</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016463742874205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9717563913684306</v>
+        <v>0.9737061777473647</v>
       </c>
       <c r="D12">
-        <v>0.9972143812630757</v>
+        <v>0.9993784259129063</v>
       </c>
       <c r="E12">
-        <v>0.9837179244148281</v>
+        <v>0.9853993793420751</v>
       </c>
       <c r="F12">
-        <v>1.002170019079529</v>
+        <v>1.00300640646536</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.035482984235997</v>
+        <v>1.036377429145444</v>
       </c>
       <c r="J12">
-        <v>1.002806108653375</v>
+        <v>1.004666586354105</v>
       </c>
       <c r="K12">
-        <v>1.012395144631154</v>
+        <v>1.014517543997592</v>
       </c>
       <c r="L12">
-        <v>0.9991638557290171</v>
+        <v>1.000811753944238</v>
       </c>
       <c r="M12">
-        <v>1.017255762703194</v>
+        <v>1.018076234245545</v>
       </c>
       <c r="N12">
-        <v>1.004909980063586</v>
+        <v>1.009017094854376</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.023057491178383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023706248152043</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016493082989382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9724248374710133</v>
+        <v>0.974320134059209</v>
       </c>
       <c r="D13">
-        <v>0.9977127573657011</v>
+        <v>0.9998134370330982</v>
       </c>
       <c r="E13">
-        <v>0.9842830638997327</v>
+        <v>0.9859163096196341</v>
       </c>
       <c r="F13">
-        <v>1.003732103465749</v>
+        <v>1.004541374244232</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.035673745970149</v>
+        <v>1.036540677979921</v>
       </c>
       <c r="J13">
-        <v>1.003346797739362</v>
+        <v>1.005155764850117</v>
       </c>
       <c r="K13">
-        <v>1.012839727224418</v>
+        <v>1.014900166239092</v>
       </c>
       <c r="L13">
-        <v>0.9996726301997673</v>
+        <v>1.001273438268089</v>
       </c>
       <c r="M13">
-        <v>1.018744354977129</v>
+        <v>1.019538339443344</v>
       </c>
       <c r="N13">
-        <v>1.005119708027058</v>
+        <v>1.009145487114432</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024514976104065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025142627744454</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016594024786166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9733852098107584</v>
+        <v>0.9752052930929014</v>
       </c>
       <c r="D14">
-        <v>0.9983832370405894</v>
+        <v>1.000400720156847</v>
       </c>
       <c r="E14">
-        <v>0.9850482847228984</v>
+        <v>0.9866157309155219</v>
       </c>
       <c r="F14">
-        <v>1.005025182031113</v>
+        <v>1.005800305410732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.035885731718954</v>
+        <v>1.03671732522752</v>
       </c>
       <c r="J14">
-        <v>1.003946001821203</v>
+        <v>1.005684406380948</v>
       </c>
       <c r="K14">
-        <v>1.013352716668478</v>
+        <v>1.015332042383146</v>
       </c>
       <c r="L14">
-        <v>1.000275133630893</v>
+        <v>1.001811854122781</v>
       </c>
       <c r="M14">
-        <v>1.019869794304928</v>
+        <v>1.020630485686365</v>
       </c>
       <c r="N14">
-        <v>1.005340566694432</v>
+        <v>1.009229478542455</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025579894369893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026181145060989</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016695448586998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9738692146994039</v>
+        <v>0.9756529019968883</v>
       </c>
       <c r="D15">
-        <v>0.998711132214404</v>
+        <v>1.000689014727087</v>
       </c>
       <c r="E15">
-        <v>0.9854245264473839</v>
+        <v>0.9869603355910079</v>
       </c>
       <c r="F15">
-        <v>1.005497717492139</v>
+        <v>1.006256930666731</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.035979494202205</v>
+        <v>1.036794479491654</v>
       </c>
       <c r="J15">
-        <v>1.004213022744954</v>
+        <v>1.005917375565312</v>
       </c>
       <c r="K15">
-        <v>1.013585332658587</v>
+        <v>1.015526093512937</v>
       </c>
       <c r="L15">
-        <v>1.000553161494681</v>
+        <v>1.002059101309875</v>
       </c>
       <c r="M15">
-        <v>1.020245338772243</v>
+        <v>1.020990529967642</v>
       </c>
       <c r="N15">
-        <v>1.00543499492383</v>
+        <v>1.009253273662217</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.025914633436695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026503617119482</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016737693366147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9763207658797048</v>
+        <v>0.9779364530922749</v>
       </c>
       <c r="D16">
-        <v>1.00032853752268</v>
+        <v>1.002123302215906</v>
       </c>
       <c r="E16">
-        <v>0.9872934643471123</v>
+        <v>0.9886842516486519</v>
       </c>
       <c r="F16">
-        <v>1.007202501470543</v>
+        <v>1.007890448460708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I16">
-        <v>1.036397035790109</v>
+        <v>1.037136243632447</v>
       </c>
       <c r="J16">
-        <v>1.005426513992063</v>
+        <v>1.006973963590037</v>
       </c>
       <c r="K16">
-        <v>1.014655202344776</v>
+        <v>1.01641775995906</v>
       </c>
       <c r="L16">
-        <v>1.001858627736129</v>
+        <v>1.003223577413785</v>
       </c>
       <c r="M16">
-        <v>1.021406619628427</v>
+        <v>1.022082421445303</v>
       </c>
       <c r="N16">
-        <v>1.005841784792195</v>
+        <v>1.009327377231066</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.026793387612996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.027327542866611</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01691587383658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9777069055834966</v>
+        <v>0.9792413380746556</v>
       </c>
       <c r="D17">
-        <v>1.001224714076853</v>
+        <v>1.002928527786993</v>
       </c>
       <c r="E17">
-        <v>0.9883350870560796</v>
+        <v>0.9896562181382568</v>
       </c>
       <c r="F17">
-        <v>1.007838584037692</v>
+        <v>1.008492995056214</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.036605879177141</v>
+        <v>1.037307909869399</v>
       </c>
       <c r="J17">
-        <v>1.006049576852912</v>
+        <v>1.007521295890072</v>
       </c>
       <c r="K17">
-        <v>1.015211303641333</v>
+        <v>1.016885403406749</v>
       </c>
       <c r="L17">
-        <v>1.002550783205261</v>
+        <v>1.003848075081818</v>
       </c>
       <c r="M17">
-        <v>1.021710556340483</v>
+        <v>1.022353732164329</v>
       </c>
       <c r="N17">
-        <v>1.00604000677987</v>
+        <v>1.009370865250435</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.026903179680751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.027411598741398</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017001369489832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9782763056195741</v>
+        <v>0.9797869040654675</v>
       </c>
       <c r="D18">
-        <v>1.001560073034235</v>
+        <v>1.003237549977211</v>
       </c>
       <c r="E18">
-        <v>0.9887320813039886</v>
+        <v>0.9900333846892273</v>
       </c>
       <c r="F18">
-        <v>1.007446568246293</v>
+        <v>1.008093015642418</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.036646317124545</v>
+        <v>1.037338253094214</v>
       </c>
       <c r="J18">
-        <v>1.006185896512181</v>
+        <v>1.00763590367457</v>
       </c>
       <c r="K18">
-        <v>1.015351931812604</v>
+        <v>1.017000632124714</v>
       </c>
       <c r="L18">
-        <v>1.002748190226548</v>
+        <v>1.00402640154097</v>
       </c>
       <c r="M18">
-        <v>1.021137990379405</v>
+        <v>1.021773500180932</v>
       </c>
       <c r="N18">
-        <v>1.006064536920243</v>
+        <v>1.009344510710022</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.026209813388629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.026712279631839</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01700684431056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9780755818550779</v>
+        <v>0.9796096387282003</v>
       </c>
       <c r="D19">
-        <v>1.001367622010261</v>
+        <v>1.003074578734006</v>
       </c>
       <c r="E19">
-        <v>0.988518833152125</v>
+        <v>0.9898412363786975</v>
       </c>
       <c r="F19">
-        <v>1.006013828096558</v>
+        <v>1.00667382252315</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.036528463020276</v>
+        <v>1.037233627152827</v>
       </c>
       <c r="J19">
-        <v>1.005853602879152</v>
+        <v>1.007326456043193</v>
       </c>
       <c r="K19">
-        <v>1.015098373276873</v>
+        <v>1.016776191424929</v>
       </c>
       <c r="L19">
-        <v>1.002473108327762</v>
+        <v>1.003772159053653</v>
       </c>
       <c r="M19">
-        <v>1.019665565379638</v>
+        <v>1.020314412176916</v>
       </c>
       <c r="N19">
-        <v>1.005924761702535</v>
+        <v>1.009229218547683</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02471497906621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.025228162845223</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016935125655742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9757278871173656</v>
+        <v>0.9774148087467199</v>
       </c>
       <c r="D20">
-        <v>0.9997060860307222</v>
+        <v>1.001595972498504</v>
       </c>
       <c r="E20">
-        <v>0.9866069436019621</v>
+        <v>0.988062525255627</v>
       </c>
       <c r="F20">
-        <v>1.001800805534315</v>
+        <v>1.002534111824401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.035974071321064</v>
+        <v>1.036756685898398</v>
       </c>
       <c r="J20">
-        <v>1.004227621010711</v>
+        <v>1.005844996977675</v>
       </c>
       <c r="K20">
-        <v>1.013754105530886</v>
+        <v>1.015610816585797</v>
       </c>
       <c r="L20">
-        <v>1.00088945408903</v>
+        <v>1.002318579597964</v>
       </c>
       <c r="M20">
-        <v>1.015812063684659</v>
+        <v>1.016532547809007</v>
       </c>
       <c r="N20">
-        <v>1.005332185855302</v>
+        <v>1.008860372040108</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.02112807798808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.021698279013636</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016650922883272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9709543603124255</v>
+        <v>0.9729907430725216</v>
       </c>
       <c r="D21">
-        <v>0.9965192672415845</v>
+        <v>0.9987879881822097</v>
       </c>
       <c r="E21">
-        <v>0.9829291795037207</v>
+        <v>0.9846885661830079</v>
       </c>
       <c r="F21">
-        <v>0.9978171015935231</v>
+        <v>0.9987044644034461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.035110528075888</v>
+        <v>1.036051729641805</v>
       </c>
       <c r="J21">
-        <v>1.001718744386689</v>
+        <v>1.003662782802896</v>
       </c>
       <c r="K21">
-        <v>1.01156688459795</v>
+        <v>1.01379235893778</v>
       </c>
       <c r="L21">
-        <v>0.9982413453879233</v>
+        <v>0.9999659429097607</v>
       </c>
       <c r="M21">
-        <v>1.012839948004311</v>
+        <v>1.013710422742428</v>
       </c>
       <c r="N21">
-        <v>1.00447413635102</v>
+        <v>1.008685755351838</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.018734009716995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.019422953411109</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016273233274823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9679385595223405</v>
+        <v>0.9701965433031317</v>
       </c>
       <c r="D22">
-        <v>0.9945146747994967</v>
+        <v>0.997023501318116</v>
       </c>
       <c r="E22">
-        <v>0.9806192701543289</v>
+        <v>0.982571111289513</v>
       </c>
       <c r="F22">
-        <v>0.995434447656888</v>
+        <v>0.996419369940032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03456147496723</v>
+        <v>1.035603125911051</v>
       </c>
       <c r="J22">
-        <v>1.000153433752137</v>
+        <v>1.002302955201371</v>
       </c>
       <c r="K22">
-        <v>1.010195585912371</v>
+        <v>1.012654154739667</v>
       </c>
       <c r="L22">
-        <v>0.9965846944851283</v>
+        <v>0.9984959292845541</v>
       </c>
       <c r="M22">
-        <v>1.011096894857695</v>
+        <v>1.012062095103927</v>
       </c>
       <c r="N22">
-        <v>1.003940401074005</v>
+        <v>1.008576007525077</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.017354455216171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.018118371660289</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016036486490592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9695434704526665</v>
+        <v>0.9716703788734987</v>
       </c>
       <c r="D23">
-        <v>0.9955810596163981</v>
+        <v>0.9979518040355169</v>
       </c>
       <c r="E23">
-        <v>0.9818477369052382</v>
+        <v>0.9836853377274898</v>
       </c>
       <c r="F23">
-        <v>0.9967014616086202</v>
+        <v>0.9976287111651718</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.034854655402146</v>
+        <v>1.035838323858412</v>
       </c>
       <c r="J23">
-        <v>1.000986604657152</v>
+        <v>1.003014396904409</v>
       </c>
       <c r="K23">
-        <v>1.01092571340007</v>
+        <v>1.013250190472097</v>
       </c>
       <c r="L23">
-        <v>0.9974662028948934</v>
+        <v>0.9992665825044684</v>
       </c>
       <c r="M23">
-        <v>1.012024213693906</v>
+        <v>1.012933386096807</v>
       </c>
       <c r="N23">
-        <v>1.004224508300234</v>
+        <v>1.008591897222692</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.018088390093111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.018807962023167</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016159867897724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9757278112091551</v>
+        <v>0.977416012843639</v>
       </c>
       <c r="D24">
-        <v>0.9996984028502532</v>
+        <v>1.001590239493115</v>
       </c>
       <c r="E24">
-        <v>0.9865984464817046</v>
+        <v>0.988055226541673</v>
       </c>
       <c r="F24">
-        <v>1.001604336417179</v>
+        <v>1.002338786423654</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.035962417308909</v>
+        <v>1.036745956847436</v>
       </c>
       <c r="J24">
-        <v>1.004193311103429</v>
+        <v>1.005812012815589</v>
       </c>
       <c r="K24">
-        <v>1.013730816943406</v>
+        <v>1.015589486177947</v>
       </c>
       <c r="L24">
-        <v>1.000865068079026</v>
+        <v>1.002295403934366</v>
       </c>
       <c r="M24">
-        <v>1.015603336565939</v>
+        <v>1.016324954460918</v>
       </c>
       <c r="N24">
-        <v>1.005317635696404</v>
+        <v>1.008845306409913</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020921111655819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.021492239678389</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016642936842322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9826445625517826</v>
+        <v>0.9840196497049304</v>
       </c>
       <c r="D25">
-        <v>1.004317291290949</v>
+        <v>1.005809447193937</v>
       </c>
       <c r="E25">
-        <v>0.9919444099960434</v>
+        <v>0.9931329338030074</v>
       </c>
       <c r="F25">
-        <v>1.007128058201912</v>
+        <v>1.007724862105128</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.037154591425604</v>
+        <v>1.037773218048999</v>
       </c>
       <c r="J25">
-        <v>1.007770463414534</v>
+        <v>1.009097049917831</v>
       </c>
       <c r="K25">
-        <v>1.016848954536941</v>
+        <v>1.018318243442056</v>
       </c>
       <c r="L25">
-        <v>1.004669079193106</v>
+        <v>1.005838795783377</v>
       </c>
       <c r="M25">
-        <v>1.019616718903844</v>
+        <v>1.020204431533272</v>
       </c>
       <c r="N25">
-        <v>1.006536228878496</v>
+        <v>1.009687939224166</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024097516651357</v>
+        <v>1.02456266254297</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017205257022678</v>
       </c>
     </row>
   </sheetData>
